--- a/medicine/Psychotrope/Patère_(vaisselle)/Patère_(vaisselle).xlsx
+++ b/medicine/Psychotrope/Patère_(vaisselle)/Patère_(vaisselle).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pat%C3%A8re_(vaisselle)</t>
+          <t>Patère_(vaisselle)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La patère est un ustensile sacrificiel, évasé et peu profond, servant au service de l'alcool[1]. C'est, avec la grappe de vigne et le thyrse, l'un des attributs de Bacchus (Dionysos), d'Épona et aussi d'Hadès (Pluton). On offrait une libation aux dieux avec une patère[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La patère est un ustensile sacrificiel, évasé et peu profond, servant au service de l'alcool. C'est, avec la grappe de vigne et le thyrse, l'un des attributs de Bacchus (Dionysos), d'Épona et aussi d'Hadès (Pluton). On offrait une libation aux dieux avec une patère.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pat%C3%A8re_(vaisselle)</t>
+          <t>Patère_(vaisselle)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Patères conservées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patère de Titulcia (La Tène)
 Patère de Rennes (IIIe siècle)
